--- a/src/main/resources/template/transport_order_flash_template.xlsx
+++ b/src/main/resources/template/transport_order_flash_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/2200224/Project/ecommerce/api/goodluck_manage_api/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEC5D27-F104-8545-9341-1D978EE3E6D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003D032D-1685-FE44-9065-A79A1B1975F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="2400" windowWidth="28480" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Order Template" sheetId="1" r:id="rId1"/>
     <sheet name="Input rules" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <r>
       <rPr>
@@ -1153,6 +1153,9 @@
   </si>
   <si>
     <t>${model.address1}</t>
+  </si>
+  <si>
+    <t>${model.customerOrderNumber}</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1502,6 +1505,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1514,7 +1520,7 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2645,7 +2651,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="15.75" customHeight="1"/>
@@ -2670,7 +2676,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="48" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
@@ -2732,10 +2738,13 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="B2" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="27" t="s">
         <v>79</v>
       </c>
       <c r="D2" s="25" t="s">
@@ -3003,7 +3012,7 @@
       <c r="A19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="11"/>
@@ -3012,22 +3021,22 @@
       <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="30"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="16">
       <c r="A21" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/main/resources/template/transport_order_flash_template.xlsx
+++ b/src/main/resources/template/transport_order_flash_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/2200224/Project/ecommerce/api/goodluck_manage_api/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003D032D-1685-FE44-9065-A79A1B1975F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A6BE0E-1150-5848-A1ED-DD615F2BD8B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="2400" windowWidth="28480" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9840" yWindow="7560" windowWidth="28480" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order Template" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,12 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>flash</author>
+    <author>heibai</author>
+    <author>wenhui</author>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{EF6753AA-8963-6349-97C0-28448D0AB98B}">
       <text>
         <r>
           <rPr>
@@ -38,11 +40,184 @@
             <family val="4"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="T3")</t>
+          <t>jx:area(lastCell="Q3")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{C35E181D-845B-CC4D-892C-869BF0FFF695}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{7136FC05-41F0-984C-A4C3-B84EB5F08157}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>Up to 50 characters</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9C7EC124-1D6E-A145-A153-D2BA03F66057}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fill in "detail address""sub-district""district""province" successively, separated by a blank space. (Thai only)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A8BDD2A6-3FD8-1247-B734-D46D507AA6BD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter 5-digits postal code correctly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A6E3BF86-39AB-3645-B589-A8D06BD7BF05}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>9-20 characters, include figure or symbol "+""-""()"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B692B9A4-2139-D841-B1AE-8D5F52FB028A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>9-20 characters, include figure or symbol "+""-""()"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{A02DEFD8-5042-3943-9620-60C8DAA42B62}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number between 1 and 50000, only support integer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{ED81C123-2A1F-354D-BC0B-BCE1DC712F56}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number between 0.01 and 50, up to 2 decimal places</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{9A8AB6CD-95F6-FA42-BBF3-0F17B6CA5A3F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Length cannot exceed 100CM. 
+Sum of length, width and height  is 280CM maximum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{F5DA4577-CE8C-214F-A69E-5BC4321A4E99}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Width cannot exceed 100CM. 
+Sum of length, width and height  is 280CM maximum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{5B47C62E-69D6-054B-AD29-860A6CDC08FD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Height cannot exceed 100CM. 
+Sum of length, width and height  is 280CM maximum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="2" shapeId="0" xr:uid="{F0FC6C6F-C039-E44A-82B0-7ADD35AD32AA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t>Enter declared value</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t>，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t>number between 1 and 50000, only support integer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="1" shapeId="0" xr:uid="{C76449D1-FE80-FA45-9095-440A933E47AD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>The total number of characters in Remark1,Remark2 and Remark3 cannot exceed 300</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="3" shapeId="0" xr:uid="{979B28F7-D00E-5645-8448-21B84F404564}">
       <text>
         <r>
           <rPr>
@@ -52,7 +227,7 @@
             <family val="4"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="models"= var="model" lastCell="T3")</t>
+          <t>jx:each(items="models"= var="model" lastCell="Q3")</t>
         </r>
         <r>
           <rPr>
@@ -73,7 +248,7 @@
             <family val="4"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:if(condition="model.total &lt; 1", lastCell="T3", areas=["A2:T2","A3:T3"])</t>
+          <t>jx:if(condition="model.total &lt; 1", lastCell="Q3", areas=["A2:Q2","A3:Q3"])</t>
         </r>
       </text>
     </comment>
@@ -82,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
   <si>
     <r>
       <rPr>
@@ -295,12 +470,35 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Item_type
+        <color indexed="11"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Weight_kg
+(น้ำหนัก)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Length
 (</t>
     </r>
     <r>
@@ -310,7 +508,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>ประเภทสินค้า</t>
+      <t>ยาว</t>
     </r>
     <r>
       <rPr>
@@ -327,35 +525,12 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Weight_kg
-(น้ำหนัก)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Length
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Width
 (</t>
     </r>
     <r>
@@ -365,7 +540,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>ยาว</t>
+      <t>กว้าง</t>
     </r>
     <r>
       <rPr>
@@ -387,7 +562,7 @@
         <family val="4"/>
         <charset val="134"/>
       </rPr>
-      <t>Width
+      <t>Height
 (</t>
     </r>
     <r>
@@ -397,7 +572,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>กว้าง</t>
+      <t>สูง</t>
     </r>
     <r>
       <rPr>
@@ -419,7 +594,7 @@
         <family val="4"/>
         <charset val="134"/>
       </rPr>
-      <t>Height
+      <t>Freight_insurance
 (</t>
     </r>
     <r>
@@ -429,7 +604,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>สูง</t>
+      <t>คุ้มครองพัสดุตีกลับ</t>
     </r>
     <r>
       <rPr>
@@ -451,7 +626,7 @@
         <family val="4"/>
         <charset val="134"/>
       </rPr>
-      <t>Freight_insurance
+      <t>Declared_value
 (</t>
     </r>
     <r>
@@ -461,7 +636,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>คุ้มครองพัสดุตีกลับ</t>
+      <t>มูลค่าสินค้าที่ระบุโดยลูกค้า</t>
     </r>
     <r>
       <rPr>
@@ -475,15 +650,471 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Value_insurance
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Input Rules</t>
+  </si>
+  <si>
+    <t>Right sample</t>
+  </si>
+  <si>
+    <t>Customer_order_number</t>
+  </si>
+  <si>
+    <t>The order number you defined.   0-64 characters.</t>
+  </si>
+  <si>
+    <t>EA86101401</t>
+  </si>
+  <si>
+    <t>Consignee_name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Up to 50 characters.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Leelawadee UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>เจษฎา</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Leelawadee UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>นวเกล้า</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Fill in "detail address""sub-district""district""province" successively, separated by a blank space. (Thai only)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">184/233 Forum Tower </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Leelawadee UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ชั้น</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">34 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Leelawadee UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ถนนรัชดาภิเษก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Leelawadee UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>แขวง</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Leelawadee UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ห้วยขวาง</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Leelawadee UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>เขต</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Leelawadee UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ห้วยขวาง</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Leelawadee UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>กรุงเทพ</t>
+    </r>
+  </si>
+  <si>
+    <t>Postal_code</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Enter 5-digits postal code correctly
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+  </si>
+  <si>
+    <t>Phone_number</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9-20 characters, include figure or symbol "+""-""()"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+  </si>
+  <si>
+    <t>021682111</t>
+  </si>
+  <si>
+    <t>Phone_number2</t>
+  </si>
+  <si>
+    <t>9-20 characters, include figure or symbol "+""-""()"</t>
+  </si>
+  <si>
+    <t>021682112</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>Number between 1 and 50000, only support integer</t>
+  </si>
+  <si>
+    <t>Item_type</t>
+  </si>
+  <si>
+    <t>Select item type.</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Weight_kg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Number between 0.01 and 50, up to 2 decimal places
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Length </t>
+  </si>
+  <si>
+    <t>Enter an integer. Length cannot exceed 100CM. 
+Sum of length, width and height  is 280CM maximum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width </t>
+  </si>
+  <si>
+    <t>Enter an integer. Width cannot exceed 100CM. 
+Sum of length, width and height  is 280CM maximum</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Enter an integer. Height cannot exceed 100CM. 
+Sum of length, width and height  is 280CM maximum</t>
+  </si>
+  <si>
+    <t>Freight_insurance</t>
+  </si>
+  <si>
+    <t>You can choose Y or N to indicate whether you want to purchase the shipping insurance.Enter this grid to indicate that you have read and agreed to Freight Insurance Agreement</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Value_insurance</t>
+  </si>
+  <si>
+    <t>You can choose Y or N to indicate wether you want to purchase Value Insurance service.Enter this grid to indicate that you have read and agreed to Value Insurance Agreement</t>
+  </si>
+  <si>
+    <t>Declared_value</t>
+  </si>
+  <si>
+    <t>Enter declared value，number between 1 and 50000, only support integer</t>
+  </si>
+  <si>
+    <t>Packaging_damage_insurance</t>
+  </si>
+  <si>
+    <t>You can choose Y or N to indicate whether you want to purchase package damage insurance. Enter this grid to indicate that you have read and agreed to Packaging damage insurance Agreement</t>
+  </si>
+  <si>
+    <t>Product_type</t>
+  </si>
+  <si>
+    <t>You can choose " Standard" or "Bulky" or "Standard+SPEED" to indicate which product you want to use. "Standard + SPEED" means that the standard package has purchased speed.By entering this grid, you have read and agreed to the user service agreement</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Remark1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional. The total number of characters in Remark1,Remark2 and Remark3 cannot exceed 300.
+</t>
+  </si>
+  <si>
+    <t>Remark2</t>
+  </si>
+  <si>
+    <t>Remark3</t>
+  </si>
+  <si>
+    <t>To ensure that the imported data is correct, please fill in the order information according to the above rules.</t>
+  </si>
+  <si>
+    <t>${model.cod}</t>
+  </si>
+  <si>
+    <t>${model.postalCode}</t>
+  </si>
+  <si>
+    <t>${model.phoneNumber}</t>
+  </si>
+  <si>
+    <t>${model.weightKg}</t>
+  </si>
+  <si>
+    <t>${model.lengthCm}</t>
+  </si>
+  <si>
+    <t>${model.widthCm}</t>
+  </si>
+  <si>
+    <t>${model.heightCm}</t>
+  </si>
+  <si>
+    <t>${model.productType}</t>
+  </si>
+  <si>
+    <t>${model.consigneeName}</t>
+  </si>
+  <si>
+    <t>${model.address1}</t>
+  </si>
+  <si>
+    <t>${model.customerOrderNumber}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Package insurance
 (</t>
     </r>
     <r>
@@ -493,7 +1124,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>คุ้มครองพัสดุ</t>
+      <t>ประกันบรรจุภัณฑ์ภายนอกเสียหาย</t>
     </r>
     <r>
       <rPr>
@@ -510,13 +1141,22 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Declared_value
-(</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Product_type         (</t>
     </r>
     <r>
       <rPr>
@@ -525,61 +1165,68 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>มูลค่าสินค้าที่ระบุโดยลูกค้า</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Packaging_damage_insurance
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+      <t>ประเภทสินค้า</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Payment method
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>คุ้มครองบรรจุภัณฑ์ภายนอกเสียหาย</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Remark1
+      <t>วิธีชำระเงิน</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Remark
 (</t>
     </r>
     <r>
@@ -599,563 +1246,14 @@
         <family val="4"/>
         <charset val="134"/>
       </rPr>
-      <t>1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Remark2
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>หมายเหตุ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Remark3
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>หมายเหตุ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3)</t>
-    </r>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Input Rules</t>
-  </si>
-  <si>
-    <t>Right sample</t>
-  </si>
-  <si>
-    <t>Customer_order_number</t>
-  </si>
-  <si>
-    <t>The order number you defined.   0-64 characters.</t>
-  </si>
-  <si>
-    <t>EA86101401</t>
-  </si>
-  <si>
-    <t>Consignee_name</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Up to 50 characters.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Required</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Leelawadee UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>เจษฎา</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Leelawadee UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>นวเกล้า</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Fill in "detail address""sub-district""district""province" successively, separated by a blank space. (Thai only)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Required</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">184/233 Forum Tower </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Leelawadee UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ชั้น</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">34 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Leelawadee UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ถนนรัชดาภิเษก</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Leelawadee UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>แขวง</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Leelawadee UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ห้วยขวาง</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Leelawadee UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>เขต</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Leelawadee UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ห้วยขวาง</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Leelawadee UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>กรุงเทพ</t>
-    </r>
-  </si>
-  <si>
-    <t>Postal_code</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Enter 5-digits postal code correctly
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Required</t>
-    </r>
-  </si>
-  <si>
-    <t>Phone_number</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">9-20 characters, include figure or symbol "+""-""()"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Required</t>
-    </r>
-  </si>
-  <si>
-    <t>021682111</t>
-  </si>
-  <si>
-    <t>Phone_number2</t>
-  </si>
-  <si>
-    <t>9-20 characters, include figure or symbol "+""-""()"</t>
-  </si>
-  <si>
-    <t>021682112</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>Number between 1 and 50000, only support integer</t>
-  </si>
-  <si>
-    <t>Item_type</t>
-  </si>
-  <si>
-    <t>Select item type.</t>
-  </si>
-  <si>
-    <t>Fruit</t>
-  </si>
-  <si>
-    <t>Weight_kg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Number between 0.01 and 50, up to 2 decimal places
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Required</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Length </t>
-  </si>
-  <si>
-    <t>Enter an integer. Length cannot exceed 100CM. 
-Sum of length, width and height  is 280CM maximum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Width </t>
-  </si>
-  <si>
-    <t>Enter an integer. Width cannot exceed 100CM. 
-Sum of length, width and height  is 280CM maximum</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Enter an integer. Height cannot exceed 100CM. 
-Sum of length, width and height  is 280CM maximum</t>
-  </si>
-  <si>
-    <t>Freight_insurance</t>
-  </si>
-  <si>
-    <t>You can choose Y or N to indicate whether you want to purchase the shipping insurance.Enter this grid to indicate that you have read and agreed to Freight Insurance Agreement</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Value_insurance</t>
-  </si>
-  <si>
-    <t>You can choose Y or N to indicate wether you want to purchase Value Insurance service.Enter this grid to indicate that you have read and agreed to Value Insurance Agreement</t>
-  </si>
-  <si>
-    <t>Declared_value</t>
-  </si>
-  <si>
-    <t>Enter declared value，number between 1 and 50000, only support integer</t>
-  </si>
-  <si>
-    <t>Packaging_damage_insurance</t>
-  </si>
-  <si>
-    <t>You can choose Y or N to indicate whether you want to purchase package damage insurance. Enter this grid to indicate that you have read and agreed to Packaging damage insurance Agreement</t>
-  </si>
-  <si>
-    <t>Product_type</t>
-  </si>
-  <si>
-    <t>You can choose " Standard" or "Bulky" or "Standard+SPEED" to indicate which product you want to use. "Standard + SPEED" means that the standard package has purchased speed.By entering this grid, you have read and agreed to the user service agreement</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Remark1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optional. The total number of characters in Remark1,Remark2 and Remark3 cannot exceed 300.
-</t>
-  </si>
-  <si>
-    <t>Remark2</t>
-  </si>
-  <si>
-    <t>Remark3</t>
-  </si>
-  <si>
-    <t>To ensure that the imported data is correct, please fill in the order information according to the above rules.</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Product_type
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>ประเภทสินค้า</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>${model.cod}</t>
-  </si>
-  <si>
-    <t>${model.postalCode}</t>
-  </si>
-  <si>
-    <t>${model.phoneNumber}</t>
-  </si>
-  <si>
-    <t>${model.weightKg}</t>
-  </si>
-  <si>
-    <t>${model.lengthCm}</t>
-  </si>
-  <si>
-    <t>${model.widthCm}</t>
-  </si>
-  <si>
-    <t>${model.heightCm}</t>
-  </si>
-  <si>
-    <t>${model.productType}</t>
-  </si>
-  <si>
-    <t>${model.consigneeName}</t>
-  </si>
-  <si>
-    <t>${model.address1}</t>
-  </si>
-  <si>
-    <t>${model.customerOrderNumber}</t>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>${model.remark}</t>
+  </si>
+  <si>
+    <t>${model.paymentMethod}</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1254,8 +1352,36 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1283,12 +1409,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,9 +1601,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1491,9 +1608,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1508,6 +1622,9 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1520,8 +1637,11 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2647,11 +2767,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:IE3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="15.75" customHeight="1"/>
@@ -2675,8 +2795,8 @@
     <col min="21" max="241" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="48" customHeight="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:239" ht="84">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
@@ -2703,82 +2823,304 @@
       <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="23" t="s">
+      <c r="N1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CF1" s="1"/>
+      <c r="CG1" s="1"/>
+      <c r="CH1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="1"/>
+      <c r="CL1" s="1"/>
+      <c r="CM1" s="1"/>
+      <c r="CN1" s="1"/>
+      <c r="CO1" s="1"/>
+      <c r="CP1" s="1"/>
+      <c r="CQ1" s="1"/>
+      <c r="CR1" s="1"/>
+      <c r="CS1" s="1"/>
+      <c r="CT1" s="1"/>
+      <c r="CU1" s="1"/>
+      <c r="CV1" s="1"/>
+      <c r="CW1" s="1"/>
+      <c r="CX1" s="1"/>
+      <c r="CY1" s="1"/>
+      <c r="CZ1" s="1"/>
+      <c r="DA1" s="1"/>
+      <c r="DB1" s="1"/>
+      <c r="DC1" s="1"/>
+      <c r="DD1" s="1"/>
+      <c r="DE1" s="1"/>
+      <c r="DF1" s="1"/>
+      <c r="DG1" s="1"/>
+      <c r="DH1" s="1"/>
+      <c r="DI1" s="1"/>
+      <c r="DJ1" s="1"/>
+      <c r="DK1" s="1"/>
+      <c r="DL1" s="1"/>
+      <c r="DM1" s="1"/>
+      <c r="DN1" s="1"/>
+      <c r="DO1" s="1"/>
+      <c r="DP1" s="1"/>
+      <c r="DQ1" s="1"/>
+      <c r="DR1" s="1"/>
+      <c r="DS1" s="1"/>
+      <c r="DT1" s="1"/>
+      <c r="DU1" s="1"/>
+      <c r="DV1" s="1"/>
+      <c r="DW1" s="1"/>
+      <c r="DX1" s="1"/>
+      <c r="DY1" s="1"/>
+      <c r="DZ1" s="1"/>
+      <c r="EA1" s="1"/>
+      <c r="EB1" s="1"/>
+      <c r="EC1" s="1"/>
+      <c r="ED1" s="1"/>
+      <c r="EE1" s="1"/>
+      <c r="EF1" s="1"/>
+      <c r="EG1" s="1"/>
+      <c r="EH1" s="1"/>
+      <c r="EI1" s="1"/>
+      <c r="EJ1" s="1"/>
+      <c r="EK1" s="1"/>
+      <c r="EL1" s="1"/>
+      <c r="EM1" s="1"/>
+      <c r="EN1" s="1"/>
+      <c r="EO1" s="1"/>
+      <c r="EP1" s="1"/>
+      <c r="EQ1" s="1"/>
+      <c r="ER1" s="1"/>
+      <c r="ES1" s="1"/>
+      <c r="ET1" s="1"/>
+      <c r="EU1" s="1"/>
+      <c r="EV1" s="1"/>
+      <c r="EW1" s="1"/>
+      <c r="EX1" s="1"/>
+      <c r="EY1" s="1"/>
+      <c r="EZ1" s="1"/>
+      <c r="FA1" s="1"/>
+      <c r="FB1" s="1"/>
+      <c r="FC1" s="1"/>
+      <c r="FD1" s="1"/>
+      <c r="FE1" s="1"/>
+      <c r="FF1" s="1"/>
+      <c r="FG1" s="1"/>
+      <c r="FH1" s="1"/>
+      <c r="FI1" s="1"/>
+      <c r="FJ1" s="1"/>
+      <c r="FK1" s="1"/>
+      <c r="FL1" s="1"/>
+      <c r="FM1" s="1"/>
+      <c r="FN1" s="1"/>
+      <c r="FO1" s="1"/>
+      <c r="FP1" s="1"/>
+      <c r="FQ1" s="1"/>
+      <c r="FR1" s="1"/>
+      <c r="FS1" s="1"/>
+      <c r="FT1" s="1"/>
+      <c r="FU1" s="1"/>
+      <c r="FV1" s="1"/>
+      <c r="FW1" s="1"/>
+      <c r="FX1" s="1"/>
+      <c r="FY1" s="1"/>
+      <c r="FZ1" s="1"/>
+      <c r="GA1" s="1"/>
+      <c r="GB1" s="1"/>
+      <c r="GC1" s="1"/>
+      <c r="GD1" s="1"/>
+      <c r="GE1" s="1"/>
+      <c r="GF1" s="1"/>
+      <c r="GG1" s="1"/>
+      <c r="GH1" s="1"/>
+      <c r="GI1" s="1"/>
+      <c r="GJ1" s="1"/>
+      <c r="GK1" s="1"/>
+      <c r="GL1" s="1"/>
+      <c r="GM1" s="1"/>
+      <c r="GN1" s="1"/>
+      <c r="GO1" s="1"/>
+      <c r="GP1" s="1"/>
+      <c r="GQ1" s="1"/>
+      <c r="GR1" s="1"/>
+      <c r="GS1" s="1"/>
+      <c r="GT1" s="1"/>
+      <c r="GU1" s="1"/>
+      <c r="GV1" s="1"/>
+      <c r="GW1" s="1"/>
+      <c r="GX1" s="1"/>
+      <c r="GY1" s="1"/>
+      <c r="GZ1" s="1"/>
+      <c r="HA1" s="1"/>
+      <c r="HB1" s="1"/>
+      <c r="HC1" s="1"/>
+      <c r="HD1" s="1"/>
+      <c r="HE1" s="1"/>
+      <c r="HF1" s="1"/>
+      <c r="HG1" s="1"/>
+      <c r="HH1" s="1"/>
+      <c r="HI1" s="1"/>
+      <c r="HJ1" s="1"/>
+      <c r="HK1" s="1"/>
+      <c r="HL1" s="1"/>
+      <c r="HM1" s="1"/>
+      <c r="HN1" s="1"/>
+      <c r="HO1" s="1"/>
+      <c r="HP1" s="1"/>
+      <c r="HQ1" s="1"/>
+      <c r="HR1" s="1"/>
+      <c r="HS1" s="1"/>
+      <c r="HT1" s="1"/>
+      <c r="HU1" s="1"/>
+      <c r="HV1" s="1"/>
+      <c r="HW1" s="1"/>
+      <c r="HX1" s="1"/>
+      <c r="HY1" s="1"/>
+      <c r="HZ1" s="1"/>
+      <c r="IA1" s="1"/>
+      <c r="IB1" s="1"/>
+      <c r="IC1" s="1"/>
+      <c r="ID1" s="1"/>
+      <c r="IE1" s="1"/>
+    </row>
+    <row r="2" spans="1:239" ht="15.75" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="24" t="s">
-        <v>18</v>
+      <c r="O2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>77</v>
-      </c>
+    <row r="3" spans="1:239" ht="15.75" customHeight="1">
+      <c r="O3" s="23"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H2001" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H2001" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"เอกสาร,ผลไม้,อาหารแห้ง,ของใช้,อุปกรณ์ไอที,เสื้อผ้า,สื่อบันเทิง,อะไหล่ยนต์,รองเท้า/กระเป๋า,เครื่องสำอางค์,เฟอร์นิเจอร์,อื่นๆ"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O2001" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P2001 M2:N2001" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 O4:O2001" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:N2001 P3:P2001" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
@@ -2812,54 +3154,54 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="51">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C5" s="11">
         <v>10310</v>
@@ -2867,32 +3209,32 @@
     </row>
     <row r="6" spans="1:3" ht="34">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16">
       <c r="A8" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" s="11">
         <v>4200</v>
@@ -2900,21 +3242,21 @@
     </row>
     <row r="9" spans="1:3" ht="17">
       <c r="A9" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C10" s="11">
         <v>1</v>
@@ -2922,10 +3264,10 @@
     </row>
     <row r="11" spans="1:3" ht="34">
       <c r="A11" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C11" s="11">
         <v>30</v>
@@ -2933,10 +3275,10 @@
     </row>
     <row r="12" spans="1:3" ht="34">
       <c r="A12" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C12" s="11">
         <v>30</v>
@@ -2944,10 +3286,10 @@
     </row>
     <row r="13" spans="1:3" ht="34">
       <c r="A13" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C13" s="11">
         <v>30</v>
@@ -2955,32 +3297,32 @@
     </row>
     <row r="14" spans="1:3" ht="68">
       <c r="A14" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="68">
       <c r="A15" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34">
       <c r="A16" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C16" s="11">
         <v>1</v>
@@ -2988,55 +3330,55 @@
     </row>
     <row r="17" spans="1:3" ht="68">
       <c r="A17" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="102">
       <c r="A18" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16">
       <c r="A19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>59</v>
       </c>
       <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" ht="16">
       <c r="A20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="31"/>
+        <v>60</v>
+      </c>
+      <c r="B20" s="30"/>
       <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="16">
       <c r="A21" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="31"/>
+        <v>61</v>
+      </c>
+      <c r="B21" s="30"/>
       <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A22" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
+      <c r="A22" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
